--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
@@ -55,9 +58,15 @@
     <t>fuck</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>shame</t>
   </si>
   <si>
+    <t>falling</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
@@ -67,24 +76,27 @@
     <t>low</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>shortage</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -97,102 +109,126 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>relief</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
+    <t>confidence</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
+    <t>key</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>health</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
@@ -202,18 +238,18 @@
     <t>new</t>
   </si>
   <si>
-    <t>store</t>
+    <t>social</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>san</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -221,6 +257,9 @@
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -581,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0.9696969696969697</v>
@@ -700,13 +739,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8888888888888888</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,16 +760,16 @@
         <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9574468085106383</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -750,13 +789,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.868421052631579</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,16 +810,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +839,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.815068493150685</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C6">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7692307692307693</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9017857142857143</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +939,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.8823529411764706</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +989,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6923076923076923</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8802816901408451</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="L9">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="M9">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1039,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5852713178294574</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C10">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>302</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.875</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="M10">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5838926174496645</v>
+        <v>0.675</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>0.8671875</v>
@@ -1100,13 +1139,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1157,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8658536585365854</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L12">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="M12">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1189,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4391534391534391</v>
+        <v>0.5930232558139535</v>
       </c>
       <c r="C13">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="D13">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1239,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.423728813559322</v>
+        <v>0.5302013422818792</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1289,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3666666666666666</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.8301886792452831</v>
+        <v>0.84</v>
       </c>
       <c r="L15">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="M15">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1339,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3636363636363636</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>0.82</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1389,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3625</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D17">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.8095238095238095</v>
+        <v>0.80625</v>
       </c>
       <c r="L17">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="M17">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1439,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2976190476190476</v>
+        <v>0.455026455026455</v>
       </c>
       <c r="C18">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.79375</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L18">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>127</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1983914209115281</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C19">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1507,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.783289817232376</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,21 +1531,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="C20">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>34</v>
+      </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.7674418604651163</v>
+        <v>0.762402088772846</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>292</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,12 +1581,36 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.4155844155844156</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>45</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>0.7553191489361702</v>
@@ -1548,17 +1635,41 @@
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.3452380952380952</v>
+      </c>
+      <c r="C22">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>165</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.7016949152542373</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1570,21 +1681,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.1849865951742627</v>
+      </c>
+      <c r="C23">
+        <v>69</v>
+      </c>
+      <c r="D23">
+        <v>69</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>304</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.6923076923076923</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.6764705882352942</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>230</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1622,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6741573033707865</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1648,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6666666666666666</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1674,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6359832635983264</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L27">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="M27">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1700,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6301369863013698</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1726,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6025641025641025</v>
+        <v>0.640625</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1752,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5737704918032787</v>
+        <v>0.6276150627615062</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1778,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1804,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5531914893617021</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5142857142857142</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +1991,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.2320574162679426</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L35">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>321</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>0.1971153846153846</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L36">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1934,73 +2069,73 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>334</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K37">
-        <v>0.1682242990654206</v>
+        <v>0.3263157894736842</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>178</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.1502347417840376</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L38">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>181</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K39">
-        <v>0.08277404921700224</v>
+        <v>0.2320574162679426</v>
       </c>
       <c r="L39">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M39">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2012,41 +2147,41 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>820</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K40">
-        <v>0.08102108768035517</v>
+        <v>0.2215189873417721</v>
       </c>
       <c r="L40">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>828</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>0.07407407407407407</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="L41">
         <v>36</v>
@@ -2064,137 +2199,371 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>450</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K42">
-        <v>0.05873261205564142</v>
+        <v>0.2125984251968504</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="N42">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>609</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K43">
-        <v>0.05758426966292135</v>
+        <v>0.1814109742441209</v>
       </c>
       <c r="L43">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="M43">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>2013</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K44">
-        <v>0.05658198614318707</v>
+        <v>0.1802884615384615</v>
       </c>
       <c r="L44">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="M44">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>817</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K45">
-        <v>0.02294764059469942</v>
+        <v>0.1581395348837209</v>
       </c>
       <c r="L45">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="M45">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="N45">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>3023</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.1516587677725119</v>
+      </c>
+      <c r="L46">
+        <v>32</v>
+      </c>
+      <c r="M46">
+        <v>36</v>
+      </c>
+      <c r="N46">
+        <v>0.89</v>
+      </c>
+      <c r="O46">
+        <v>0.11</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.1304347826086956</v>
+      </c>
+      <c r="L47">
+        <v>30</v>
+      </c>
+      <c r="M47">
+        <v>30</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K48">
+        <v>0.1122222222222222</v>
+      </c>
+      <c r="L48">
+        <v>101</v>
+      </c>
+      <c r="M48">
+        <v>102</v>
+      </c>
+      <c r="N48">
+        <v>0.99</v>
+      </c>
+      <c r="O48">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49">
+        <v>0.1020092735703246</v>
+      </c>
+      <c r="L49">
+        <v>66</v>
+      </c>
+      <c r="M49">
         <v>69</v>
       </c>
-      <c r="K46">
-        <v>0.00972396486825596</v>
-      </c>
-      <c r="L46">
-        <v>31</v>
-      </c>
-      <c r="M46">
-        <v>44</v>
-      </c>
-      <c r="N46">
-        <v>0.7</v>
-      </c>
-      <c r="O46">
-        <v>0.3</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>3157</v>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50">
+        <v>0.09710743801652892</v>
+      </c>
+      <c r="L50">
+        <v>47</v>
+      </c>
+      <c r="M50">
+        <v>49</v>
+      </c>
+      <c r="N50">
+        <v>0.96</v>
+      </c>
+      <c r="O50">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K51">
+        <v>0.09577464788732394</v>
+      </c>
+      <c r="L51">
+        <v>204</v>
+      </c>
+      <c r="M51">
+        <v>217</v>
+      </c>
+      <c r="N51">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O51">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K52">
+        <v>0.08198614318706697</v>
+      </c>
+      <c r="L52">
+        <v>71</v>
+      </c>
+      <c r="M52">
+        <v>72</v>
+      </c>
+      <c r="N52">
+        <v>0.99</v>
+      </c>
+      <c r="O52">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K53">
+        <v>0.04333764553686934</v>
+      </c>
+      <c r="L53">
+        <v>134</v>
+      </c>
+      <c r="M53">
+        <v>149</v>
+      </c>
+      <c r="N53">
+        <v>0.9</v>
+      </c>
+      <c r="O53">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54">
+        <v>0.02797927461139896</v>
+      </c>
+      <c r="L54">
+        <v>27</v>
+      </c>
+      <c r="M54">
+        <v>30</v>
+      </c>
+      <c r="N54">
+        <v>0.9</v>
+      </c>
+      <c r="O54">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55">
+        <v>0.02229899497487437</v>
+      </c>
+      <c r="L55">
+        <v>71</v>
+      </c>
+      <c r="M55">
+        <v>88</v>
+      </c>
+      <c r="N55">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3113</v>
       </c>
     </row>
   </sheetData>
